--- a/excel/SA Detail Design Types.xlsx
+++ b/excel/SA Detail Design Types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SA-Test1" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/excel/SA Detail Design Types.xlsx
+++ b/excel/SA Detail Design Types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SA-Test1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/SA Detail Design Types.xlsx
+++ b/excel/SA Detail Design Types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SA-Test1" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/SA Detail Design Types.xlsx
+++ b/excel/SA Detail Design Types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SA-Test1" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
